--- a/regression/MBA6636_SM21_Professor_Proposes_Data.xlsx
+++ b/regression/MBA6636_SM21_Professor_Proposes_Data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oyindolapo Komolafe\OneDrive\Old\Documents\PythonProjects\mba6636\regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C974C2-DF85-4116-A869-56BA0DFE0B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBCE353-D536-4055-B1F7-80D09BC987B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="3735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Code" sheetId="2" r:id="rId2"/>
+    <sheet name="predict" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_ftn1" localSheetId="0">Data!$A$445</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2735" uniqueCount="67">
   <si>
     <t>Carat</t>
   </si>
@@ -679,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13789,4 +13790,73 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5030F769-763B-4B03-804E-CEF76D36DAF9}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>